--- a/benchmark/ethereum/Transactions_100tps_500tts_10.195.9.11.xlsx
+++ b/benchmark/ethereum/Transactions_100tps_500tts_10.195.9.11.xlsx
@@ -5,18 +5,40 @@
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
     <sheet sheetId="1" name="Transactions_100tps_500tts" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="General" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Tx nr.</t>
   </si>
   <si>
     <t>Latency</t>
+  </si>
+  <si>
+    <t>Successful</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Durschn. Latenz:</t>
+  </si>
+  <si>
+    <t>Dursatz:</t>
+  </si>
+  <si>
+    <t>Total Time</t>
+  </si>
+  <si>
+    <t>45950.876 ms</t>
+  </si>
+  <si>
+    <t>9.993204620857817 tx/s</t>
   </si>
 </sst>
 </file>
@@ -409,7 +431,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>70298</v>
+        <v>47616</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -417,7 +439,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>70065</v>
+        <v>47971</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -425,7 +447,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>70079</v>
+        <v>47579</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -433,7 +455,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>70075</v>
+        <v>47602</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -441,7 +463,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>70184</v>
+        <v>47982</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -449,7 +471,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>70446</v>
+        <v>47580</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -457,7 +479,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>70457</v>
+        <v>47997</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -465,7 +487,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>70097</v>
+        <v>47629</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -473,7 +495,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>70841</v>
+        <v>47706</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -481,7 +503,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>70034</v>
+        <v>48002</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -489,7 +511,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>70042</v>
+        <v>47961</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -497,7 +519,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>70560</v>
+        <v>47998</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -505,7 +527,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>70434</v>
+        <v>47628</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -513,7 +535,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>71093</v>
+        <v>47592</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -521,7 +543,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>70618</v>
+        <v>47590</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -529,7 +551,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>70042</v>
+        <v>47704</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -537,7 +559,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>70538</v>
+        <v>47697</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -545,7 +567,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>70241</v>
+        <v>47653</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -553,7 +575,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>70292</v>
+        <v>47627</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -561,7 +583,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>70467</v>
+        <v>47584</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -569,7 +591,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>70454</v>
+        <v>47642</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -577,7 +599,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>70550</v>
+        <v>47561</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -585,7 +607,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>70286</v>
+        <v>47589</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -593,7 +615,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>70462</v>
+        <v>47576</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -601,7 +623,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>70285</v>
+        <v>47690</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -609,7 +631,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>70361</v>
+        <v>47558</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -617,7 +639,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>70057</v>
+        <v>47685</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -625,7 +647,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>70682</v>
+        <v>47622</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -633,7 +655,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>70058</v>
+        <v>47573</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -641,7 +663,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>70305</v>
+        <v>47574</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -649,7 +671,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>70423</v>
+        <v>47582</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -657,7 +679,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>70369</v>
+        <v>47679</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -665,7 +687,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>70288</v>
+        <v>47963</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -673,7 +695,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>70340</v>
+        <v>47627</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -681,7 +703,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>70499</v>
+        <v>47581</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -689,7 +711,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>70287</v>
+        <v>47982</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -697,7 +719,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>70209</v>
+        <v>47634</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -705,7 +727,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>70514</v>
+        <v>47674</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -713,7 +735,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>70839</v>
+        <v>47685</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -721,7 +743,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>70445</v>
+        <v>47605</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -729,7 +751,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>70396</v>
+        <v>47570</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -737,7 +759,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>70032</v>
+        <v>48080</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -745,7 +767,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>70397</v>
+        <v>47579</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -753,7 +775,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>70391</v>
+        <v>47677</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -761,7 +783,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>70337</v>
+        <v>47575</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -769,7 +791,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>70096</v>
+        <v>47571</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -777,7 +799,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>70061</v>
+        <v>47911</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -785,7 +807,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>71068</v>
+        <v>47555</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -793,7 +815,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>70640</v>
+        <v>47623</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -801,7 +823,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>70087</v>
+        <v>47704</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -809,7 +831,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>70545</v>
+        <v>47557</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -817,7 +839,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>70419</v>
+        <v>47578</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -825,7 +847,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>70415</v>
+        <v>47583</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -833,7 +855,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>70372</v>
+        <v>47597</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -841,7 +863,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>70356</v>
+        <v>47578</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -849,7 +871,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>70415</v>
+        <v>47554</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -857,7 +879,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>70389</v>
+        <v>47985</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -865,7 +887,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>70087</v>
+        <v>47573</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -873,7 +895,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>70248</v>
+        <v>47587</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -881,7 +903,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>70405</v>
+        <v>47569</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -889,7 +911,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>70066</v>
+        <v>47625</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -897,7 +919,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>70384</v>
+        <v>47570</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -905,7 +927,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>70361</v>
+        <v>47569</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -913,7 +935,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>70030</v>
+        <v>47635</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -921,7 +943,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>70549</v>
+        <v>47592</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -929,7 +951,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>70985</v>
+        <v>47621</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -937,7 +959,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>70195</v>
+        <v>47576</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -945,7 +967,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>70403</v>
+        <v>47715</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -953,7 +975,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>70077</v>
+        <v>47640</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -961,7 +983,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>70838</v>
+        <v>47673</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -969,7 +991,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>70036</v>
+        <v>47586</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -977,7 +999,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>70399</v>
+        <v>47589</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -985,7 +1007,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>70284</v>
+        <v>47600</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -993,7 +1015,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>70336</v>
+        <v>47553</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1001,7 +1023,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>70065</v>
+        <v>47567</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1009,7 +1031,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>70058</v>
+        <v>47623</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1017,7 +1039,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>70246</v>
+        <v>47588</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1025,7 +1047,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>70329</v>
+        <v>47620</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1033,7 +1055,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>70446</v>
+        <v>47622</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1041,7 +1063,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>70561</v>
+        <v>47569</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1049,7 +1071,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>70984</v>
+        <v>47577</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1057,7 +1079,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>70060</v>
+        <v>47594</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1065,7 +1087,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>70402</v>
+        <v>47659</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1073,7 +1095,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>70533</v>
+        <v>47794</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1081,7 +1103,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>70098</v>
+        <v>47673</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1089,7 +1111,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>70565</v>
+        <v>47713</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1097,7 +1119,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>70442</v>
+        <v>47961</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1105,7 +1127,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>70557</v>
+        <v>47774</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1113,7 +1135,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>70059</v>
+        <v>47574</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1121,7 +1143,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>70924</v>
+        <v>47552</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1129,7 +1151,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>70455</v>
+        <v>47965</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1137,7 +1159,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>70453</v>
+        <v>47978</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1145,7 +1167,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>70101</v>
+        <v>47907</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1153,7 +1175,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>70235</v>
+        <v>47968</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -1161,7 +1183,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>70635</v>
+        <v>47920</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1169,7 +1191,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>71086</v>
+        <v>47673</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1177,7 +1199,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>70421</v>
+        <v>47618</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1185,7 +1207,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>70464</v>
+        <v>47620</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1193,7 +1215,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>70567</v>
+        <v>47621</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1201,7 +1223,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>70057</v>
+        <v>47625</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1209,7 +1231,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>71281</v>
+        <v>47101</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1217,7 +1239,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>71070</v>
+        <v>47103</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1225,7 +1247,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>71324</v>
+        <v>46809</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1233,7 +1255,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>71323</v>
+        <v>47195</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1241,7 +1263,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>71078</v>
+        <v>46659</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1249,7 +1271,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>71029</v>
+        <v>47159</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1257,7 +1279,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>71291</v>
+        <v>46762</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1265,7 +1287,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>71240</v>
+        <v>47194</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1273,7 +1295,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>71928</v>
+        <v>47100</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1281,7 +1303,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>71067</v>
+        <v>46502</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1289,7 +1311,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>71387</v>
+        <v>47055</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -1297,7 +1319,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>71219</v>
+        <v>47198</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1305,7 +1327,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>71225</v>
+        <v>47103</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -1313,7 +1335,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>72128</v>
+        <v>46754</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1321,7 +1343,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>71345</v>
+        <v>46806</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -1329,7 +1351,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>71348</v>
+        <v>46788</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -1337,7 +1359,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>71333</v>
+        <v>47158</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -1345,7 +1367,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>71241</v>
+        <v>46756</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -1353,7 +1375,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>71452</v>
+        <v>47180</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -1361,7 +1383,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>71585</v>
+        <v>46713</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1369,7 +1391,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>71321</v>
+        <v>47198</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1377,7 +1399,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>71712</v>
+        <v>46814</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -1385,7 +1407,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>71588</v>
+        <v>47246</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -1393,7 +1415,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>71581</v>
+        <v>46652</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -1401,7 +1423,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>71598</v>
+        <v>46791</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -1409,7 +1431,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>71875</v>
+        <v>46773</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -1417,7 +1439,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>71575</v>
+        <v>46811</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -1425,7 +1447,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>71197</v>
+        <v>46767</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -1433,7 +1455,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>71407</v>
+        <v>47172</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -1441,7 +1463,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>71283</v>
+        <v>47110</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -1449,7 +1471,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>71317</v>
+        <v>47157</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -1457,7 +1479,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>71287</v>
+        <v>47253</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -1465,7 +1487,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>71300</v>
+        <v>47155</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -1473,7 +1495,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>71312</v>
+        <v>46663</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -1481,7 +1503,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>71924</v>
+        <v>47243</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -1489,7 +1511,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>71354</v>
+        <v>46750</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -1497,7 +1519,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>71298</v>
+        <v>47100</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -1505,7 +1527,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>71281</v>
+        <v>47100</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -1513,7 +1535,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>71270</v>
+        <v>47136</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -1521,7 +1543,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>71408</v>
+        <v>47172</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -1529,7 +1551,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>71268</v>
+        <v>46762</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -1537,7 +1559,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>71427</v>
+        <v>46728</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -1545,7 +1567,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>71361</v>
+        <v>46695</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -1553,7 +1575,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>71062</v>
+        <v>46742</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -1561,7 +1583,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>71739</v>
+        <v>47019</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -1569,7 +1591,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>71209</v>
+        <v>46660</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -1577,7 +1599,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>71373</v>
+        <v>47125</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -1585,7 +1607,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>71576</v>
+        <v>47181</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -1593,7 +1615,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>71330</v>
+        <v>47104</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -1601,7 +1623,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>71424</v>
+        <v>47118</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -1609,7 +1631,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>71285</v>
+        <v>46655</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -1617,7 +1639,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>71443</v>
+        <v>46739</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -1625,7 +1647,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>71293</v>
+        <v>47188</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -1633,7 +1655,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>71376</v>
+        <v>47248</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -1641,7 +1663,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>71356</v>
+        <v>46658</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -1649,7 +1671,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>71416</v>
+        <v>46999</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -1657,7 +1679,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>71681</v>
+        <v>46709</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -1665,7 +1687,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>71069</v>
+        <v>46778</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -1673,7 +1695,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>71068</v>
+        <v>46768</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -1681,7 +1703,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>71429</v>
+        <v>46671</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -1689,7 +1711,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>71315</v>
+        <v>47042</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -1697,7 +1719,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>71288</v>
+        <v>46655</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -1705,7 +1727,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>71019</v>
+        <v>47039</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -1713,7 +1735,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>71278</v>
+        <v>47073</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -1721,7 +1743,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>71285</v>
+        <v>46733</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -1729,7 +1751,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>71281</v>
+        <v>47170</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -1737,7 +1759,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>71312</v>
+        <v>46774</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -1745,7 +1767,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>71084</v>
+        <v>46701</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -1753,7 +1775,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>71057</v>
+        <v>47092</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -1761,7 +1783,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>71057</v>
+        <v>47010</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -1769,7 +1791,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>71343</v>
+        <v>46723</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -1777,7 +1799,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>71363</v>
+        <v>47034</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -1785,7 +1807,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>71288</v>
+        <v>46720</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -1793,7 +1815,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>71068</v>
+        <v>46729</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -1801,7 +1823,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>71476</v>
+        <v>47023</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -1809,7 +1831,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>71284</v>
+        <v>46851</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -1817,7 +1839,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>71280</v>
+        <v>47170</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -1825,7 +1847,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>71016</v>
+        <v>46779</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -1833,7 +1855,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>71017</v>
+        <v>46664</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -1841,7 +1863,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>71280</v>
+        <v>47009</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -1849,7 +1871,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>71067</v>
+        <v>46681</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -1857,7 +1879,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>72095</v>
+        <v>47100</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -1865,7 +1887,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>71563</v>
+        <v>47113</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -1873,7 +1895,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>71563</v>
+        <v>47054</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -1881,7 +1903,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>71353</v>
+        <v>47169</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -1889,7 +1911,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>71345</v>
+        <v>47130</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -1897,7 +1919,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>71533</v>
+        <v>46744</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -1905,7 +1927,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>71064</v>
+        <v>46678</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -1913,7 +1935,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>71017</v>
+        <v>46684</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -1921,7 +1943,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>71560</v>
+        <v>47179</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -1929,7 +1951,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>71081</v>
+        <v>46715</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -1937,7 +1959,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>71880</v>
+        <v>47047</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -1945,7 +1967,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>71016</v>
+        <v>47044</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -1953,7 +1975,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>71281</v>
+        <v>46714</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -1961,7 +1983,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>71279</v>
+        <v>47013</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -1969,7 +1991,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>71377</v>
+        <v>46671</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -1977,7 +1999,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>71053</v>
+        <v>46696</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -1985,7 +2007,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>71354</v>
+        <v>47067</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -1993,7 +2015,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>71658</v>
+        <v>46648</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -2001,7 +2023,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>71423</v>
+        <v>46669</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -2009,7 +2031,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>66903</v>
+        <v>45825</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -2017,7 +2039,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>67725</v>
+        <v>46106</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -2025,7 +2047,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>68040</v>
+        <v>46106</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -2033,7 +2055,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>66979</v>
+        <v>45767</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -2041,7 +2063,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>67674</v>
+        <v>45774</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -2049,7 +2071,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>67857</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -2057,7 +2079,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>67949</v>
+        <v>45554</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -2065,7 +2087,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>67923</v>
+        <v>46200</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -2073,7 +2095,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>68068</v>
+        <v>46129</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -2081,7 +2103,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>67949</v>
+        <v>46198</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -2089,7 +2111,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>68146</v>
+        <v>46154</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -2097,7 +2119,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>67903</v>
+        <v>46184</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -2105,7 +2127,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>67317</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -2113,7 +2135,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>67072</v>
+        <v>45595</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -2121,7 +2143,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>68068</v>
+        <v>46123</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -2129,7 +2151,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>68146</v>
+        <v>46105</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -2137,7 +2159,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>68088</v>
+        <v>45612</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -2145,7 +2167,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>67760</v>
+        <v>46142</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -2153,7 +2175,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>67922</v>
+        <v>46105</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -2161,7 +2183,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>68091</v>
+        <v>46267</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -2169,7 +2191,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>67500</v>
+        <v>45776</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -2177,7 +2199,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>67393</v>
+        <v>46164</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -2185,7 +2207,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>67469</v>
+        <v>46129</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -2193,7 +2215,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>67496</v>
+        <v>46401</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -2201,7 +2223,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>66969</v>
+        <v>46083</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -2209,7 +2231,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>67857</v>
+        <v>46142</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -2217,7 +2239,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>67923</v>
+        <v>45600</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -2225,7 +2247,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>67856</v>
+        <v>45554</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -2233,7 +2255,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>66981</v>
+        <v>46232</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -2241,7 +2263,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>67326</v>
+        <v>45822</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -2249,7 +2271,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>67818</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -2257,7 +2279,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>67818</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -2265,7 +2287,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>67722</v>
+        <v>46175</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -2273,7 +2295,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>67902</v>
+        <v>46163</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -2281,7 +2303,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>67922</v>
+        <v>45556</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -2289,7 +2311,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>67922</v>
+        <v>46148</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -2297,7 +2319,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>68038</v>
+        <v>46141</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -2305,7 +2327,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>67953</v>
+        <v>45720</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -2313,7 +2335,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>66953</v>
+        <v>45823</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -2321,7 +2343,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>67465</v>
+        <v>46128</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -2329,7 +2351,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>68038</v>
+        <v>46227</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -2337,7 +2359,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>67947</v>
+        <v>46157</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -2345,7 +2367,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>67900</v>
+        <v>46164</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -2353,7 +2375,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>67946</v>
+        <v>45780</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -2361,7 +2383,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>68152</v>
+        <v>46144</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -2369,7 +2391,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>67818</v>
+        <v>46207</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -2377,7 +2399,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>67722</v>
+        <v>45552</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -2385,7 +2407,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>66998</v>
+        <v>46211</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -2393,7 +2415,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>67900</v>
+        <v>45800</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -2401,7 +2423,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>67465</v>
+        <v>45722</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -2409,7 +2431,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>66955</v>
+        <v>45525</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -2417,7 +2439,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>67977</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -2425,7 +2447,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>68125</v>
+        <v>46081</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -2433,7 +2455,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>67531</v>
+        <v>46398</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -2441,7 +2463,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>66990</v>
+        <v>45599</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -2449,7 +2471,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>67920</v>
+        <v>46147</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -2457,7 +2479,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>67687</v>
+        <v>46220</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -2465,7 +2487,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>67974</v>
+        <v>46190</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -2473,7 +2495,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>66985</v>
+        <v>46149</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -2481,7 +2503,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>67921</v>
+        <v>46129</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -2489,7 +2511,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>67429</v>
+        <v>46163</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -2497,7 +2519,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>67720</v>
+        <v>46170</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -2505,7 +2527,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>67758</v>
+        <v>46152</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -2513,7 +2535,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>68096</v>
+        <v>45607</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -2521,7 +2543,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>66918</v>
+        <v>45723</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -2529,7 +2551,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>67921</v>
+        <v>45511</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -2537,7 +2559,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>67720</v>
+        <v>45820</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -2545,7 +2567,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>67899</v>
+        <v>46044</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -2553,7 +2575,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>67817</v>
+        <v>46234</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -2561,7 +2583,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>67952</v>
+        <v>45517</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -2569,7 +2591,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>67919</v>
+        <v>46217</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -2577,7 +2599,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>66968</v>
+        <v>45559</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -2585,7 +2607,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>67943</v>
+        <v>46397</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -2593,7 +2615,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>67816</v>
+        <v>46127</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -2601,7 +2623,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>68035</v>
+        <v>45565</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -2609,7 +2631,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>67817</v>
+        <v>46239</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -2617,7 +2639,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>67756</v>
+        <v>45512</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -2625,7 +2647,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>67500</v>
+        <v>45555</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -2633,7 +2655,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>67757</v>
+        <v>46118</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -2641,7 +2663,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>67302</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -2649,7 +2671,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>67950</v>
+        <v>45703</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -2657,7 +2679,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>67524</v>
+        <v>46067</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
@@ -2665,7 +2687,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>67895</v>
+        <v>46200</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -2673,7 +2695,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>68030</v>
+        <v>45602</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -2681,7 +2703,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>68034</v>
+        <v>46231</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -2689,7 +2711,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>68034</v>
+        <v>46197</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -2697,7 +2719,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>67897</v>
+        <v>45726</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -2705,7 +2727,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>66898</v>
+        <v>46212</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -2713,7 +2735,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>67943</v>
+        <v>46244</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -2721,7 +2743,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>67851</v>
+        <v>45576</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -2729,7 +2751,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>68034</v>
+        <v>46117</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
@@ -2737,7 +2759,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>67851</v>
+        <v>45596</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
@@ -2745,7 +2767,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>66958</v>
+        <v>46136</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
@@ -2753,7 +2775,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>67918</v>
+        <v>45568</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -2761,7 +2783,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>67918</v>
+        <v>45817</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -2769,7 +2791,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>67755</v>
+        <v>46156</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -2777,7 +2799,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>67851</v>
+        <v>45578</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -2785,7 +2807,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>67898</v>
+        <v>45710</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -2793,7 +2815,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>69749</v>
+        <v>46220</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -2801,7 +2823,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>67461</v>
+        <v>45544</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -2809,7 +2831,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>69104</v>
+        <v>44804</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -2817,7 +2839,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>69465</v>
+        <v>44739</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -2825,7 +2847,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>69587</v>
+        <v>45501</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -2833,7 +2855,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>69480</v>
+        <v>44664</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -2841,7 +2863,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>69151</v>
+        <v>45707</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -2849,7 +2871,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>69483</v>
+        <v>45501</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -2857,7 +2879,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>69531</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -2865,7 +2887,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>69130</v>
+        <v>45678</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -2873,7 +2895,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>70201</v>
+        <v>45137</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -2881,7 +2903,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>69144</v>
+        <v>44783</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -2889,7 +2911,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>69487</v>
+        <v>45109</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -2897,7 +2919,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>69499</v>
+        <v>44804</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -2905,7 +2927,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>69463</v>
+        <v>45703</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
@@ -2913,7 +2935,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>69141</v>
+        <v>44811</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -2921,7 +2943,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>69120</v>
+        <v>44740</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -2929,7 +2951,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>69510</v>
+        <v>44816</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -2937,7 +2959,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>69189</v>
+        <v>44639</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -2945,7 +2967,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>69579</v>
+        <v>44904</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
@@ -2953,7 +2975,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>69232</v>
+        <v>45500</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -2961,7 +2983,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>69501</v>
+        <v>45666</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -2969,7 +2991,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>69496</v>
+        <v>44815</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -2977,7 +2999,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>69610</v>
+        <v>44935</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
@@ -2985,7 +3007,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>70262</v>
+        <v>44783</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -2993,7 +3015,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>69122</v>
+        <v>45572</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -3001,7 +3023,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>69417</v>
+        <v>44734</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -3009,7 +3031,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>70017</v>
+        <v>44651</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -3017,7 +3039,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>70195</v>
+        <v>45665</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
@@ -3025,7 +3047,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>69530</v>
+        <v>44647</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -3033,7 +3055,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>71933</v>
+        <v>44580</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -3041,7 +3063,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>69542</v>
+        <v>44768</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
@@ -3049,7 +3071,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>69472</v>
+        <v>45498</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -3057,7 +3079,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>69160</v>
+        <v>45702</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -3065,7 +3087,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>70109</v>
+        <v>44781</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
@@ -3073,7 +3095,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>69171</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
@@ -3081,7 +3103,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>69920</v>
+        <v>45526</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -3089,7 +3111,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>69832</v>
+        <v>45676</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
@@ -3097,7 +3119,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>69241</v>
+        <v>45705</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
@@ -3105,7 +3127,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>69434</v>
+        <v>45680</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
@@ -3113,7 +3135,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>69468</v>
+        <v>44726</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
@@ -3121,7 +3143,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>69509</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
@@ -3129,7 +3151,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>69479</v>
+        <v>44809</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
@@ -3137,7 +3159,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>69454</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
@@ -3145,7 +3167,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>69132</v>
+        <v>44919</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
@@ -3153,7 +3175,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>69413</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
@@ -3161,7 +3183,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>69573</v>
+        <v>44748</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
@@ -3169,7 +3191,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>69567</v>
+        <v>45675</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
@@ -3177,7 +3199,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>69107</v>
+        <v>44911</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
@@ -3185,7 +3207,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>69178</v>
+        <v>44656</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
@@ -3193,7 +3215,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>69409</v>
+        <v>44687</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
@@ -3201,7 +3223,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>70314</v>
+        <v>44742</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
@@ -3209,7 +3231,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>70243</v>
+        <v>45692</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
@@ -3217,7 +3239,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>70114</v>
+        <v>45690</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
@@ -3225,7 +3247,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>69423</v>
+        <v>44743</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
@@ -3233,7 +3255,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>69540</v>
+        <v>45691</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
@@ -3241,7 +3263,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>69612</v>
+        <v>44882</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
@@ -3249,7 +3271,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>69538</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
@@ -3257,7 +3279,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>69700</v>
+        <v>44809</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
@@ -3265,7 +3287,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>69641</v>
+        <v>44639</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
@@ -3273,7 +3295,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>69831</v>
+        <v>45674</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
@@ -3281,7 +3303,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>69151</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
@@ -3289,7 +3311,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>70108</v>
+        <v>44990</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
@@ -3297,7 +3319,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>68982</v>
+        <v>45060</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
@@ -3305,7 +3327,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>69110</v>
+        <v>45555</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
@@ -3313,7 +3335,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>69314</v>
+        <v>44623</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
@@ -3321,7 +3343,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>69176</v>
+        <v>44886</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
@@ -3329,7 +3351,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>69201</v>
+        <v>44809</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
@@ -3337,7 +3359,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>69831</v>
+        <v>45662</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
@@ -3345,7 +3367,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>70194</v>
+        <v>45688</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
@@ -3353,7 +3375,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>70273</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
@@ -3361,7 +3383,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>69171</v>
+        <v>45673</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
@@ -3369,7 +3391,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>69418</v>
+        <v>45690</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
@@ -3377,7 +3399,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>69537</v>
+        <v>45513</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
@@ -3385,7 +3407,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>69676</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
@@ -3393,7 +3415,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>69586</v>
+        <v>45680</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
@@ -3401,7 +3423,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>69472</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
@@ -3409,7 +3431,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>69204</v>
+        <v>44702</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
@@ -3417,7 +3439,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>69883</v>
+        <v>45513</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
@@ -3425,7 +3447,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>70239</v>
+        <v>44801</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
@@ -3433,7 +3455,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>69198</v>
+        <v>45486</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
@@ -3441,7 +3463,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>69154</v>
+        <v>45651</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
@@ -3449,7 +3471,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>69239</v>
+        <v>45514</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
@@ -3457,7 +3479,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>69488</v>
+        <v>44895</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
@@ -3465,7 +3487,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>70193</v>
+        <v>45485</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
@@ -3473,7 +3495,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>69454</v>
+        <v>44669</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
@@ -3481,7 +3503,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>69132</v>
+        <v>45543</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
@@ -3489,7 +3511,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>69590</v>
+        <v>44591</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
@@ -3497,7 +3519,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>69228</v>
+        <v>44589</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
@@ -3505,7 +3527,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>69490</v>
+        <v>44652</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
@@ -3513,7 +3535,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>69528</v>
+        <v>45513</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
@@ -3521,7 +3543,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>69409</v>
+        <v>45135</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
@@ -3529,7 +3551,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>69498</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
@@ -3537,7 +3559,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>69447</v>
+        <v>45484</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
@@ -3545,7 +3567,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>70224</v>
+        <v>44742</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
@@ -3553,7 +3575,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>69479</v>
+        <v>45662</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
@@ -3561,7 +3583,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>69111</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
@@ -3569,7 +3591,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>69171</v>
+        <v>45662</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
@@ -3577,7 +3599,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>69456</v>
+        <v>44902</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
@@ -3585,7 +3607,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>69829</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
@@ -3593,7 +3615,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>69467</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
@@ -3601,7 +3623,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>69486</v>
+        <v>45457</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
@@ -3609,7 +3631,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>68794</v>
+        <v>43858</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
@@ -3617,7 +3639,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>69075</v>
+        <v>43749</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
@@ -3625,7 +3647,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>68509</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
@@ -3633,7 +3655,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>68031</v>
+        <v>43905</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
@@ -3641,7 +3663,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>69075</v>
+        <v>44651</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
@@ -3649,7 +3671,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>68028</v>
+        <v>43948</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
@@ -3657,7 +3679,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>69160</v>
+        <v>44466</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
@@ -3665,7 +3687,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>68795</v>
+        <v>43852</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
@@ -3673,7 +3695,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>68795</v>
+        <v>43732</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
@@ -3681,7 +3703,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>68942</v>
+        <v>43848</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
@@ -3689,7 +3711,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>69272</v>
+        <v>43738</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
@@ -3697,7 +3719,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>70897</v>
+        <v>44436</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
@@ -3705,7 +3727,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>69188</v>
+        <v>43905</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
@@ -3713,7 +3735,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>68793</v>
+        <v>44646</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
@@ -3721,7 +3743,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>68658</v>
+        <v>44466</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
@@ -3729,7 +3751,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>69272</v>
+        <v>44058</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
@@ -3737,7 +3759,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>69075</v>
+        <v>44778</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
@@ -3745,7 +3767,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>68794</v>
+        <v>43951</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
@@ -3753,7 +3775,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>68541</v>
+        <v>43849</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
@@ -3761,7 +3783,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>68628</v>
+        <v>43937</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
@@ -3769,7 +3791,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>68793</v>
+        <v>44573</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
@@ -3777,7 +3799,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>69197</v>
+        <v>44464</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
@@ -3785,7 +3807,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>68793</v>
+        <v>44773</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
@@ -3793,7 +3815,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>68556</v>
+        <v>43837</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
@@ -3801,7 +3823,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>69272</v>
+        <v>44480</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
@@ -3809,7 +3831,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>68525</v>
+        <v>43855</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
@@ -3817,7 +3839,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>68793</v>
+        <v>43767</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
@@ -3825,7 +3847,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>69155</v>
+        <v>43726</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
@@ -3833,7 +3855,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>68548</v>
+        <v>44406</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
@@ -3841,7 +3863,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>68644</v>
+        <v>44435</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
@@ -3849,7 +3871,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>69069</v>
+        <v>43949</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
@@ -3857,7 +3879,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>68014</v>
+        <v>43763</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
@@ -3865,7 +3887,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>70899</v>
+        <v>44652</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
@@ -3873,7 +3895,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>68793</v>
+        <v>43877</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
@@ -3881,7 +3903,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>68013</v>
+        <v>43992</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
@@ -3889,7 +3911,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>68055</v>
+        <v>43994</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
@@ -3897,7 +3919,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>68064</v>
+        <v>43758</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
@@ -3905,7 +3927,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>68060</v>
+        <v>44771</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
@@ -3913,7 +3935,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>68793</v>
+        <v>44287</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
@@ -3921,7 +3943,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>68791</v>
+        <v>43897</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
@@ -3929,7 +3951,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>68052</v>
+        <v>43743</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
@@ -3937,7 +3959,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>68069</v>
+        <v>44434</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
@@ -3945,7 +3967,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>69043</v>
+        <v>44287</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
@@ -3953,7 +3975,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>68048</v>
+        <v>43874</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
@@ -3961,7 +3983,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>70884</v>
+        <v>43661</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
@@ -3969,7 +3991,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>70882</v>
+        <v>43953</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
@@ -3977,7 +3999,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>68033</v>
+        <v>44607</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
@@ -3985,7 +4007,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>68044</v>
+        <v>43940</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
@@ -3993,7 +4015,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>69265</v>
+        <v>43934</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
@@ -4001,7 +4023,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>68939</v>
+        <v>43733</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
@@ -4009,7 +4031,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>68807</v>
+        <v>44406</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
@@ -4017,7 +4039,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>68014</v>
+        <v>43933</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
@@ -4025,7 +4047,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>69186</v>
+        <v>43881</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
@@ -4033,7 +4055,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>68792</v>
+        <v>43901</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
@@ -4041,7 +4063,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>69188</v>
+        <v>43578</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
@@ -4049,7 +4071,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>69154</v>
+        <v>43773</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
@@ -4057,7 +4079,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>69154</v>
+        <v>43546</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
@@ -4065,7 +4087,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>69187</v>
+        <v>43777</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
@@ -4073,7 +4095,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>68611</v>
+        <v>44026</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
@@ -4081,7 +4103,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>68533</v>
+        <v>44286</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
@@ -4089,7 +4111,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>68519</v>
+        <v>44404</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
@@ -4097,7 +4119,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>70888</v>
+        <v>43932</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
@@ -4105,7 +4127,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>70906</v>
+        <v>43921</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
@@ -4113,7 +4135,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>68591</v>
+        <v>43942</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
@@ -4121,7 +4143,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>69154</v>
+        <v>44405</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
@@ -4129,7 +4151,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>69043</v>
+        <v>43829</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
@@ -4137,7 +4159,7 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>68586</v>
+        <v>43798</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
@@ -4145,7 +4167,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>68807</v>
+        <v>43721</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
@@ -4153,7 +4175,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>68014</v>
+        <v>43935</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
@@ -4161,7 +4183,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>68596</v>
+        <v>44007</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
@@ -4169,7 +4191,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>68792</v>
+        <v>44652</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
@@ -4177,7 +4199,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>68605</v>
+        <v>44432</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
@@ -4185,7 +4207,7 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>68791</v>
+        <v>43721</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
@@ -4193,7 +4215,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>69269</v>
+        <v>44765</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
@@ -4201,7 +4223,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>69184</v>
+        <v>43708</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
@@ -4209,7 +4231,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>70876</v>
+        <v>43720</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
@@ -4217,7 +4239,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>68499</v>
+        <v>43784</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
@@ -4225,7 +4247,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>68789</v>
+        <v>44432</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
@@ -4233,7 +4255,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>69185</v>
+        <v>43750</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
@@ -4241,7 +4263,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>68555</v>
+        <v>44570</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
@@ -4249,7 +4271,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>68011</v>
+        <v>44570</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
@@ -4257,7 +4279,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>68562</v>
+        <v>44431</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
@@ -4265,7 +4287,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>68789</v>
+        <v>44462</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
@@ -4273,7 +4295,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>68012</v>
+        <v>44581</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
@@ -4281,7 +4303,7 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>68789</v>
+        <v>44403</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
@@ -4289,7 +4311,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>68639</v>
+        <v>43886</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
@@ -4297,7 +4319,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>68789</v>
+        <v>44581</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
@@ -4305,7 +4327,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>68789</v>
+        <v>44586</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
@@ -4313,7 +4335,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>68790</v>
+        <v>43801</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
@@ -4321,7 +4343,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>68806</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
@@ -4329,7 +4351,7 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>68973</v>
+        <v>44404</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
@@ -4337,7 +4359,7 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>68805</v>
+        <v>44477</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
@@ -4345,7 +4367,7 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>68571</v>
+        <v>43891</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
@@ -4353,7 +4375,7 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>68789</v>
+        <v>43906</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
@@ -4361,7 +4383,7 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>69190</v>
+        <v>43865</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
@@ -4369,7 +4391,7 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>68583</v>
+        <v>43883</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
@@ -4377,7 +4399,7 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>70900</v>
+        <v>43933</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
@@ -4385,7 +4407,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>68589</v>
+        <v>43391</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
@@ -4393,7 +4415,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>69211</v>
+        <v>43780</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
@@ -4401,7 +4423,52 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>68501</v>
+        <v>44284</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>500</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>50.034</v>
       </c>
     </row>
   </sheetData>
